--- a/src/benchmarks/benchmark results/@time_benchmark_7Nb.xlsx
+++ b/src/benchmarks/benchmark results/@time_benchmark_7Nb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengmingzhuo\Desktop\google drive\CSEC thesis\ParallelDefault\src\benchmarks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengmingzhuo\Desktop\google drive\ParallelDefault\src\benchmarks\benchmark results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B072C24B-A208-41C9-883F-D569BA2300DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE3FC90-7A22-466E-A2BA-5FC743C14B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7660" yWindow="-14510" windowWidth="33690" windowHeight="14620" xr2:uid="{F0059A30-72C7-43EC-9AA3-F209656A0A28}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0059A30-72C7-43EC-9AA3-F209656A0A28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="9">
   <si>
     <t>Debt points</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F64389-7810-498D-9016-DD3DF3A27A30}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -766,691 +766,902 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="4">
+        <v>11250</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.1062468201</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9.9656500000000004E-4</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4">
+        <v>12500</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.12888245000000001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.3068301E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4">
+        <v>13750</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.13342858499999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.2111799499999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4">
+        <v>15000</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.140705525</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.7435899499999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4">
+        <v>16250</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.1613247001</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.7926049999999901E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4">
+        <v>17500</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.1830694799</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.0016101000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4">
+        <v>18750</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.193442</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.6332349999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.19337688</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.1145799E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B26" s="4">
         <v>100</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C26" s="4">
         <v>5.1369999999999998E-5</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D26" s="4">
         <v>1.481135E-3</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E26" s="4">
         <v>1.6710000000000001E-5</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F26" s="4">
         <v>7.5365999999999996E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4">
-        <v>250</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3.0730499999999999E-3</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1.5699899999999999E-5</v>
-      </c>
-      <c r="F19" s="4">
-        <v>9.3205000000000002E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
-        <v>500</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4">
-        <v>7.6766100500000002E-3</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1.579E-5</v>
-      </c>
-      <c r="F20" s="4">
-        <v>9.7521000000000001E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
-        <v>750</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.085435E-2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1.59199E-5</v>
-      </c>
-      <c r="F21" s="4">
-        <v>9.9217990000000002E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2.9621629999999999E-2</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1.713E-5</v>
-      </c>
-      <c r="F22" s="4">
-        <v>9.3103995000000004E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4">
-        <v>1500</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4.5246929999999998E-2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1.8730099999999999E-5</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1.0210299E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4">
-        <v>2500</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.11692053499999901</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1.595995E-5</v>
-      </c>
-      <c r="F24" s="4">
-        <v>9.3437494999999997E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4">
-        <v>3750</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.23398169999999999</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1.54999E-5</v>
-      </c>
-      <c r="F25" s="4">
-        <v>9.8315999999999898E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.468887949999999</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1.615E-5</v>
-      </c>
-      <c r="F26" s="4">
-        <v>9.9434499999999999E-4</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4">
-        <v>7500</v>
+        <v>250</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="4">
-        <v>0.89888985990000003</v>
+        <v>3.0730499999999999E-3</v>
       </c>
       <c r="E27" s="4">
-        <v>1.64701E-5</v>
+        <v>1.5699899999999999E-5</v>
       </c>
       <c r="F27" s="4">
-        <v>9.9719000000000001E-4</v>
+        <v>9.3205000000000002E-4</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="4">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="4">
-        <v>1.6642895599999901</v>
+        <v>7.6766100500000002E-3</v>
       </c>
       <c r="E28" s="4">
-        <v>1.6240100000000001E-5</v>
+        <v>1.579E-5</v>
       </c>
       <c r="F28" s="4">
-        <v>1.0063099E-3</v>
+        <v>9.7521000000000001E-4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="4">
-        <v>11250</v>
+        <v>750</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4">
-        <v>2.0802363050499899</v>
+        <v>1.085435E-2</v>
       </c>
       <c r="E29" s="4">
-        <v>1.5820000000000001E-5</v>
+        <v>1.59199E-5</v>
       </c>
       <c r="F29" s="4">
-        <v>9.8191009999999994E-4</v>
+        <v>9.9217990000000002E-4</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="4">
-        <v>12500</v>
+        <v>1000</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="4">
-        <v>2.7162534800999998</v>
+        <v>2.9621629999999999E-2</v>
       </c>
       <c r="E30" s="4">
-        <v>1.6139900000000001E-5</v>
+        <v>1.713E-5</v>
       </c>
       <c r="F30" s="4">
-        <v>9.9651009999999996E-4</v>
+        <v>9.3103995000000004E-4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="4">
-        <v>13750</v>
+        <v>1500</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="4">
-        <v>3.1866414350999999</v>
+        <v>4.5246929999999998E-2</v>
       </c>
       <c r="E31" s="4">
-        <v>1.6160000000000001E-5</v>
+        <v>1.8730099999999999E-5</v>
       </c>
       <c r="F31" s="4">
-        <v>9.7158504999999998E-4</v>
+        <v>1.0210299E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="4">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="4">
-        <v>3.68870817</v>
+        <v>0.11692053499999901</v>
       </c>
       <c r="E32" s="4">
-        <v>1.6390000000000001E-5</v>
+        <v>1.595995E-5</v>
       </c>
       <c r="F32" s="4">
-        <v>1.0683299999999999E-3</v>
+        <v>9.3437494999999997E-4</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="4">
-        <v>16250</v>
+        <v>3750</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4">
-        <v>4.3149770350500001</v>
+        <v>0.23398169999999999</v>
       </c>
       <c r="E33" s="4">
-        <v>1.5699999999999999E-5</v>
+        <v>1.54999E-5</v>
       </c>
       <c r="F33" s="4">
-        <v>9.8324000000000003E-4</v>
+        <v>9.8315999999999898E-4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4"/>
       <c r="B34" s="4">
-        <v>17500</v>
+        <v>5000</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="4">
-        <v>5.185501565</v>
+        <v>0.468887949999999</v>
       </c>
       <c r="E34" s="4">
-        <v>1.6170049999999999E-5</v>
+        <v>1.615E-5</v>
       </c>
       <c r="F34" s="4">
-        <v>1.0123899499999999E-3</v>
+        <v>9.9434499999999999E-4</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="4">
-        <v>18750</v>
+        <v>7500</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4">
-        <v>5.8566310851000001</v>
+        <v>0.89888985990000003</v>
       </c>
       <c r="E35" s="4">
-        <v>1.588E-5</v>
+        <v>1.64701E-5</v>
       </c>
       <c r="F35" s="4">
-        <v>9.9068989999999998E-4</v>
+        <v>9.9719000000000001E-4</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.6642895599999901</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.6240100000000001E-5</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1.0063099E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4">
+        <v>11250</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2.0802363050499899</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.5820000000000001E-5</v>
+      </c>
+      <c r="F37" s="4">
+        <v>9.8191009999999994E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4">
+        <v>12500</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2.7162534800999998</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1.6139900000000001E-5</v>
+      </c>
+      <c r="F38" s="4">
+        <v>9.9651009999999996E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4">
+        <v>13750</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3.1866414350999999</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.6160000000000001E-5</v>
+      </c>
+      <c r="F39" s="4">
+        <v>9.7158504999999998E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4">
+        <v>15000</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3.68870817</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1.6390000000000001E-5</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1.0683299999999999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4">
+        <v>16250</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4.3149770350500001</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1.5699999999999999E-5</v>
+      </c>
+      <c r="F41" s="4">
+        <v>9.8324000000000003E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4">
+        <v>17500</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5.185501565</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.6170049999999999E-5</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1.0123899499999999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4">
+        <v>18750</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5.8566310851000001</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1.588E-5</v>
+      </c>
+      <c r="F43" s="4">
+        <v>9.9068989999999998E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4">
         <v>20000</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4">
         <v>6.5261139850500003</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E44" s="4">
         <v>1.696E-5</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F44" s="4">
         <v>1.0257E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B47" s="8">
         <v>100</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C47" s="8">
         <v>2.2891E-7</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D47" s="8">
         <v>2.5454900000000002E-4</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E47" s="8">
         <v>1.1965399999999999E-5</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F47" s="8">
         <v>8.4539999999999999E-7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="8">
-        <v>175</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="8">
-        <v>7.3383200000000002E-4</v>
-      </c>
-      <c r="E40" s="8">
-        <v>1.9394699999999999E-5</v>
-      </c>
-      <c r="F40" s="8">
-        <v>1.4236300000000002E-6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="8">
-        <v>250</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1.4643499999999999E-3</v>
-      </c>
-      <c r="E41" s="8">
-        <v>2.8044200000000002E-5</v>
-      </c>
-      <c r="F41" s="8">
-        <v>2.02239E-6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="B42" s="8">
-        <v>375</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="8">
-        <v>3.3740799999999998E-3</v>
-      </c>
-      <c r="E42" s="8">
-        <v>4.26068E-5</v>
-      </c>
-      <c r="F42" s="8">
-        <v>2.9525799999999998E-6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="8">
-        <v>500</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="8">
-        <v>5.5889800000000003E-3</v>
-      </c>
-      <c r="E43" s="8">
-        <v>4.9626199999999996E-5</v>
-      </c>
-      <c r="F43" s="8">
-        <v>3.5096300000000002E-6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="8">
-        <v>750</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1.19738E-2</v>
-      </c>
-      <c r="E44" s="8">
-        <v>7.3069699999999996E-5</v>
-      </c>
-      <c r="F44" s="8">
-        <v>5.19364E-6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="8">
-        <v>2.11071E-2</v>
-      </c>
-      <c r="E45" s="8">
-        <v>9.7958699999999994E-5</v>
-      </c>
-      <c r="F45" s="8">
-        <v>7.0509599999999997E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" s="8">
-        <v>1250</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="8">
-        <v>3.5974800000000001E-2</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1.21898E-4</v>
-      </c>
-      <c r="F46" s="8">
-        <v>9.0854500000000012E-6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" s="8">
-        <v>1500</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="8">
-        <v>4.7506699999999999E-2</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1.5383399999999999E-4</v>
-      </c>
-      <c r="F47" s="8">
-        <v>1.1275700000000001E-5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="8">
+        <v>175</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="8">
+        <v>7.3383200000000002E-4</v>
+      </c>
+      <c r="E48" s="8">
+        <v>1.9394699999999999E-5</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1.4236300000000002E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="8">
+        <v>250</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1.4643499999999999E-3</v>
+      </c>
+      <c r="E49" s="8">
+        <v>2.8044200000000002E-5</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2.02239E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="8">
+        <v>375</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="8">
+        <v>3.3740799999999998E-3</v>
+      </c>
+      <c r="E50" s="8">
+        <v>4.26068E-5</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2.9525799999999998E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="8">
+        <v>500</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="8">
+        <v>5.5889800000000003E-3</v>
+      </c>
+      <c r="E51" s="8">
+        <v>4.9626199999999996E-5</v>
+      </c>
+      <c r="F51" s="8">
+        <v>3.5096300000000002E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="8">
+        <v>750</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1.19738E-2</v>
+      </c>
+      <c r="E52" s="8">
+        <v>7.3069699999999996E-5</v>
+      </c>
+      <c r="F52" s="8">
+        <v>5.19364E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="8">
+        <v>2.11071E-2</v>
+      </c>
+      <c r="E53" s="8">
+        <v>9.7958699999999994E-5</v>
+      </c>
+      <c r="F53" s="8">
+        <v>7.0509599999999997E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="8">
+        <v>1250</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="8">
+        <v>3.5974800000000001E-2</v>
+      </c>
+      <c r="E54" s="8">
+        <v>1.21898E-4</v>
+      </c>
+      <c r="F54" s="8">
+        <v>9.0854500000000012E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="8">
+        <v>4.7506699999999999E-2</v>
+      </c>
+      <c r="E55" s="8">
+        <v>1.5383399999999999E-4</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1.1275700000000001E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="8">
         <v>2500</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="8">
+      <c r="C56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="8">
         <v>0.138043</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E56" s="8">
         <v>2.7011400000000001E-4</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F56" s="8">
         <v>1.9187900000000003E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="B49" s="8">
+    <row r="57" spans="2:6">
+      <c r="B57" s="8">
         <v>3750</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="8">
+      <c r="C57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="8">
         <v>0.33733999999999997</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E57" s="8">
         <v>5.2300299999999997E-4</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F57" s="8">
         <v>3.2431300000000002E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="B50" s="8">
+    <row r="58" spans="2:6">
+      <c r="B58" s="8">
         <v>5000</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="8">
+      <c r="C58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="8">
         <v>0.61322500000000002</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E58" s="8">
         <v>5.44792E-4</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F58" s="8">
         <v>3.51221E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="B51" s="8">
+    <row r="59" spans="2:6">
+      <c r="B59" s="8">
         <v>7500</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="C59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="8">
         <v>1.32263</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E59" s="8">
         <v>7.9024800000000001E-4</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F59" s="8">
         <v>5.30212E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="B52" s="8">
+    <row r="60" spans="2:6">
+      <c r="B60" s="8">
         <v>10000</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="8">
+      <c r="C60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="8">
         <v>2.3216100000000002</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E60" s="8">
         <v>1.03786E-3</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F60" s="8">
         <v>7.1924100000000005E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="B53" s="8">
+    <row r="61" spans="2:6">
+      <c r="B61" s="8">
         <v>11250</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="8">
+      <c r="C61" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="8">
         <v>2.9287999999999998</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E61" s="8">
         <v>1.19696E-3</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F61" s="8">
         <v>8.0176600000000001E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="B54" s="8">
+    <row r="62" spans="2:6">
+      <c r="B62" s="8">
         <v>12500</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="8">
+      <c r="C62" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="8">
         <v>3.4352100000000001</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E62" s="8">
         <v>1.36703E-3</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F62" s="8">
         <v>9.6082199999999993E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="B55" s="8">
+    <row r="63" spans="2:6">
+      <c r="B63" s="8">
         <v>15000</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="C63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="8">
         <v>4.5800900000000002</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E63" s="8">
         <v>1.58234E-3</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F63" s="8">
         <v>1.13755E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+    <row r="64" spans="2:6">
+      <c r="B64" s="8">
+        <v>16250</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="8">
+        <v>5.8052099999999998</v>
+      </c>
+      <c r="E64" s="8">
+        <v>1.7704000000000001E-3</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1.3169500000000001E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" s="4">
+        <v>17500</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="8">
+        <v>7.6996700000000002</v>
+      </c>
+      <c r="E65" s="8">
+        <v>2.21558E-3</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1.4865599999999999E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="B66" s="4">
+        <v>18750</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="8">
+        <v>8.0061199999999992</v>
+      </c>
+      <c r="E66" s="8">
+        <v>2.0447600000000001E-3</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1.4990000000000001E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" s="4">
+        <v>20000</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="8">
+        <v>9.3866300000000003</v>
+      </c>
+      <c r="E67" s="8">
+        <v>2.2201999999999999E-3</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1.6580499999999999E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
